--- a/biology/Zoologie/Cerianthus_lloydii/Cerianthus_lloydii.xlsx
+++ b/biology/Zoologie/Cerianthus_lloydii/Cerianthus_lloydii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cérianthe solitaire (Cerianthus lloydii) est une "fausse" anémone de mer protégée par un tube assez souple enfoui dans le sable. La couronne tentaculaire est la seule partie visible hors du tube. En cas de danger, elle se rétracte rapidement et se reforme en moins d'une minute.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le disque oral porte deux types de tentacules : en périphérie, une soixantaine de tentacules marginaux, longs de 3 cm forment une couronne de 7 cm de diamètre. Autour de la bouche, les tentacules labiaux, courts et dressés n'excèdent pas 8 mm de long. Leur coloration variable s'étend du blanc translucide au noir en passant par de nombreuses nuances de brun orangé. Les tentacules marginaux et labiaux sont souvent de couleurs différentes. La diversité des couleurs peut paraître entre tentacules de même type.
 Cette espèce vit dans le maërl, le sable mêlé aux algues et rochers, les abords des ports et les fonds vaseux. On la trouve entre 1 et 100 mètres de profondeur. On la rencontre en Atlantique, Manche, mer du Nord et Méditerranée.
@@ -547,7 +561,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la majorité de ses proches congénères les anémones de mer, les cérianthes ne tolèrent pas l’émersion, ils ne colonisent jamais la zone des marées. On trouvera C. solitarius dans des zones calmes sans fort courant et loin des turbulences des vagues. Par petit fond, seule la « tête » tentaculaire bien étalée émergera du sédiment, alors que, plus profond ou dans les étangs calmes, et où les turbulences sont faibles, la colonne lisse et cylindrique s’étirera largement jusqu’à 20 à 40 cm au-dessus du fond.
  Portail de la biologie marine   Portail des cnidaires                    </t>
